--- a/세미프로젝트/네이버기사.xlsx
+++ b/세미프로젝트/네이버기사.xlsx
@@ -16,64 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>중랑구, 침수피해 예방에 총력</t>
-  </si>
-  <si>
-    <t>LS그룹 국가 재난상황 피해복구 지원, 미래세대 꿈의 발판 제공</t>
-  </si>
-  <si>
-    <t>사회공헌 앞장서 온 LS그룹, "따뜻한 나눔 활동, 기업의 사회적 책임이 창립 정신"</t>
-  </si>
-  <si>
-    <t>LS그룹, 국가 재난상황 피해복구 지원…'미래세대 꿈' 발판 제공</t>
-  </si>
-  <si>
-    <t>LS그룹 계열사 국가 재난상황 지원 "미래세대 꿈의 발판 제공"</t>
-  </si>
-  <si>
-    <t>LS는 사회공헌의 마술사...미래세대의 발판 세우다</t>
-  </si>
-  <si>
-    <t>"미래세대 꿈의 발판 제공"…LS그룹, 사회적 책임 실천 앞장</t>
-  </si>
-  <si>
-    <t>보은군, 행안부 2023 중초지구 풍수해생활권 종합정비사업 선정</t>
-  </si>
-  <si>
-    <t>[유통가 레이더] 배민, 쇼핑라이브에서 '소상공인의 진심 담은 상품' 판매로 판로 확대 지원 등</t>
-  </si>
-  <si>
-    <t>[지구촌 한줄뉴스](종합)펠로시 대만 방문·미국 우크라 추가지원·도네츠크공화국 수장 방북 희망·푸틴 핵전쟁 반대·알카에다 지도자 사살·리비아 유조차 폭발·켄터키주 홍수·일본 원전 누수·프랑스 폭염·미국 이란 석유 관</t>
-  </si>
-  <si>
-    <t>http://www.breaknews.com/972117</t>
-  </si>
-  <si>
-    <t>https://sports.donga.com/article/all/20230502/119102589/2</t>
-  </si>
-  <si>
-    <t>http://www.sporbiz.co.kr/news/articleView.html?idxno=650019</t>
-  </si>
-  <si>
-    <t>http://www.sentv.co.kr/news/view/654527</t>
-  </si>
-  <si>
-    <t>http://www.fntimes.com/html/view.php?ud=20230330012255284899ebb03838_18</t>
-  </si>
-  <si>
-    <t>https://www.nbntv.kr/news/articleView.html?idxno=69222</t>
-  </si>
-  <si>
-    <t>http://www.inews24.com/view/1579538</t>
-  </si>
-  <si>
-    <t>http://www.breaknews.com/925896</t>
-  </si>
-  <si>
-    <t>http://www.greened.kr/news/articleView.html?idxno=297302</t>
-  </si>
-  <si>
-    <t>http://www.newscj.com/article/20220802580109</t>
+    <t>주말 날씨, 제주 비·전국 곳곳 소나기..다음주 30도 안팎 무더위</t>
+  </si>
+  <si>
+    <t>남양주시 다산1동 지역봉사단, ‘바다의 시작’ 봉사활동 START!</t>
+  </si>
+  <si>
+    <t>[오늘날씨] 21대 국회의원 선거일, 대체로 맑고 포근</t>
+  </si>
+  <si>
+    <t>[오늘날씨] 전국 대부분 미세먼지 '나쁨'···오전부터 비오는 곳도</t>
+  </si>
+  <si>
+    <t>[오늘날씨] 추석연휴 마지막 날 수도권·호남 가끔 비···미세먼지 좋은 편</t>
+  </si>
+  <si>
+    <t>[오늘날씨] 아침 6도 '일교차' 크고 산간 '서리'··그윽한 가을 햇살</t>
+  </si>
+  <si>
+    <t>'20세기 소년소녀' 류현경 이제 짝사랑은 No! 드디어 쌍방 연애 START!</t>
+  </si>
+  <si>
+    <t>[유통가 레이더] "삼성·애플페이 기다려"... 11번가 SK페이, 전국 CU매장에서 결제 시작 등</t>
+  </si>
+  <si>
+    <t>대전엑스포다리위에서 버스킹 공연 펼친다...</t>
+  </si>
+  <si>
+    <t>합천 황매산 철쭉제 4년만에 개최...4월 29일~5월 14일</t>
+  </si>
+  <si>
+    <t>http://www.breaknews.com/964764</t>
+  </si>
+  <si>
+    <t>http://www.breaknews.com/897861</t>
+  </si>
+  <si>
+    <t>http://kor.theasian.asia/archives/259977</t>
+  </si>
+  <si>
+    <t>http://kor.theasian.asia/archives/244592</t>
+  </si>
+  <si>
+    <t>http://kor.theasian.asia/archives/238509</t>
+  </si>
+  <si>
+    <t>http://kor.theasian.asia/archives/240389</t>
+  </si>
+  <si>
+    <t>http://www.gukjenews.com/news/articleView.html?idxno=821095</t>
+  </si>
+  <si>
+    <t>http://www.greened.kr/news/articleView.html?idxno=303446</t>
+  </si>
+  <si>
+    <t>http://www.breaknews.com/961333</t>
+  </si>
+  <si>
+    <t>http://www.breaknews.com/958788</t>
   </si>
 </sst>
 </file>
